--- a/EvaluationTest/User_Test_Cases.xlsx
+++ b/EvaluationTest/User_Test_Cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Final sem Project\Test Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\TeamRocket\EvaluationTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B357D51E-655D-4333-9C69-C9FC9431D7DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6251B1-BC44-436A-A64A-D3E6D38957E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="224">
   <si>
     <t>User Test Cases for Chatbot</t>
   </si>
@@ -249,9 +249,6 @@
     <t>Should be able to type date as "22 May 2020".</t>
   </si>
   <si>
-    <t>Message "There were 13915 of Recovered Cases in Ireland on 2020-05-22" should be displayed on the chatbot.</t>
-  </si>
-  <si>
     <t>5. Message "There were 298 of Death Cases in Ireland on 2020-06-08" is displayed on the chatbot.</t>
   </si>
   <si>
@@ -387,9 +384,6 @@
     <t>9. Message "There were 12359 of Active Cases in ireland on 2020-07-06" is displayed on the chatbot.</t>
   </si>
   <si>
-    <t>Message "There were 12359 of Active Cases in ireland on 2020-07-06" should be displayed on the chatbot.</t>
-  </si>
-  <si>
     <t>21- Asking for Covid Statistics</t>
   </si>
   <si>
@@ -625,6 +619,86 @@
   </si>
   <si>
     <t>Message "There were 1026 of Confirmed Cases in Afghanistan on 2020-04-20" should be displayed on the chatbot.</t>
+  </si>
+  <si>
+    <t>Expected output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chatbot runs soomthly without any hiccups </t>
+  </si>
+  <si>
+    <t>Very intuitive</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>There were 2 of Confirmed Cases in ireland on 2020-03-03</t>
+  </si>
+  <si>
+    <t>There were 2 of Confirmed Cases in Ireland on 2020-03-03</t>
+  </si>
+  <si>
+    <t>There were 5474 of Active Cases in Ireland on 2020-04-07</t>
+  </si>
+  <si>
+    <t>There were 1683 of Death Cases in Ireland on 2020-06-08</t>
+  </si>
+  <si>
+    <t>Able to see the chatbot widget on all pages of website</t>
+  </si>
+  <si>
+    <t>Able to chat</t>
+  </si>
+  <si>
+    <t>Expected message displayed</t>
+  </si>
+  <si>
+    <t>Able to type the date in given foramt</t>
+  </si>
+  <si>
+    <t>The message is displayed but the number is 1683</t>
+  </si>
+  <si>
+    <t>Able to type date in the given format</t>
+  </si>
+  <si>
+    <t>The message is displayed but the number is 21060</t>
+  </si>
+  <si>
+    <t>The message is displayed but the number is 1024</t>
+  </si>
+  <si>
+    <t>Message "There were 1683 of Death Cases in Ireland on 2020-06-08" should be displayed on the chatbot.</t>
+  </si>
+  <si>
+    <t>Ashwin: The number matched with the number in deathcases table in mysql.
+Vishal: Changed the number in script.</t>
+  </si>
+  <si>
+    <t>Message "There were 21060 of Recovered Cases in Ireland on 2020-05-22" should be displayed on the chatbot.</t>
+  </si>
+  <si>
+    <t>Message "There were 1024 of Recovered Cases in Ireland on 2020-05-22" should be displayed on the chatbot.</t>
+  </si>
+  <si>
+    <t>It is working as expected.</t>
+  </si>
+  <si>
+    <t>There were 426 of active Cases in ireland on 2020-07-06</t>
+  </si>
+  <si>
+    <t>Message "There were 426 of Active Cases in ireland on 2020-07-06" should be displayed on the chatbot.</t>
+  </si>
+  <si>
+    <t>Minaz: The stats are wrong, counter shows 426 instead of 12359
+Vishal: Chnaged it.</t>
+  </si>
+  <si>
+    <t>EXPECTED</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -687,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -728,6 +802,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1011,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="D245" sqref="D245"/>
+    <sheetView tabSelected="1" topLeftCell="D235" workbookViewId="0">
+      <selection activeCell="F249" sqref="F249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,7 +1194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1109,13 +1210,17 @@
       <c r="E8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="F8" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="8" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -1127,11 +1232,13 @@
       <c r="E9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="F9" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -1143,11 +1250,13 @@
       <c r="E10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="F10" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
@@ -1159,11 +1268,13 @@
       <c r="E11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="F11" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -1175,11 +1286,13 @@
       <c r="E12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="F12" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -1187,11 +1300,11 @@
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1209,13 +1322,15 @@
       <c r="E14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="F14" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
@@ -1227,11 +1342,15 @@
       <c r="E15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="F15" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="8" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
@@ -1243,11 +1362,13 @@
       <c r="E16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="F16" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -1255,11 +1376,11 @@
       <c r="C17" s="7"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -1277,13 +1398,15 @@
       <c r="E18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="F18" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -1295,11 +1418,13 @@
       <c r="E19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="F19" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
@@ -1311,11 +1436,13 @@
       <c r="E20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="F20" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
@@ -1323,11 +1450,11 @@
       <c r="C21" s="7"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
@@ -1345,13 +1472,15 @@
       <c r="E22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="F22" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
@@ -1363,11 +1492,13 @@
       <c r="E23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="F23" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
@@ -1379,11 +1510,13 @@
       <c r="E24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="F24" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
@@ -1391,11 +1524,11 @@
       <c r="C25" s="7"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
@@ -1413,13 +1546,15 @@
       <c r="E26" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="F26" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
@@ -1431,11 +1566,13 @@
       <c r="E27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="F27" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
@@ -1447,11 +1584,13 @@
       <c r="E28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="F28" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
@@ -1481,13 +1620,15 @@
       <c r="E30" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="F30" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
@@ -1499,27 +1640,31 @@
       <c r="E31" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="F31" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G31" s="18"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="F32" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -1531,11 +1676,13 @@
       <c r="E33" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="F33" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -1547,11 +1694,13 @@
       <c r="E34" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="F34" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -1559,11 +1708,11 @@
       <c r="C35" s="7"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
@@ -1581,13 +1730,15 @@
       <c r="E36" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="F36" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
@@ -1599,27 +1750,31 @@
       <c r="E37" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="F37" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G37" s="18"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
     </row>
     <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="F38" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G38" s="18"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
@@ -1631,11 +1786,13 @@
       <c r="E39" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="F39" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
@@ -1647,11 +1804,13 @@
       <c r="E40" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="F40" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G40" s="18"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
@@ -1659,11 +1818,11 @@
       <c r="C41" s="7"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
@@ -1681,13 +1840,15 @@
       <c r="E42" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="F42" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
     </row>
     <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
@@ -1699,27 +1860,31 @@
       <c r="E43" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="F43" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G43" s="18"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
     </row>
     <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="F44" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G44" s="18"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
@@ -1731,13 +1896,15 @@
       <c r="E45" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F45" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G45" s="18"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+    </row>
+    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1747,11 +1914,13 @@
       <c r="E46" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="F46" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G46" s="18"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
@@ -1759,11 +1928,11 @@
       <c r="C47" s="7"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
@@ -1781,13 +1950,15 @@
       <c r="E48" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="F48" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
     </row>
     <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
@@ -1799,27 +1970,31 @@
       <c r="E49" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="F49" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G49" s="18"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
     </row>
     <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="F50" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G50" s="18"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
@@ -1831,13 +2006,15 @@
       <c r="E51" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F51" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G51" s="18"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+    </row>
+    <row r="52" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1847,11 +2024,13 @@
       <c r="E52" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="F52" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G52" s="18"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
@@ -1859,11 +2038,11 @@
       <c r="C53" s="7"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
@@ -1881,45 +2060,51 @@
       <c r="E54" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="F54" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
     </row>
     <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+        <v>193</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
     </row>
     <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="F56" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
@@ -1931,27 +2116,31 @@
       <c r="E57" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F57" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+    </row>
+    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E58" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="F58" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
@@ -1965,7 +2154,7 @@
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>11</v>
       </c>
@@ -1981,47 +2170,59 @@
       <c r="E60" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="F60" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H60" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
     </row>
     <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+        <v>193</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
     </row>
     <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F62" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G62" s="3"/>
+      <c r="H62" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+    </row>
+    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2031,27 +2232,37 @@
       <c r="E63" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F63" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+    </row>
+    <row r="64" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I64" s="23"/>
+      <c r="J64" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
@@ -2059,13 +2270,13 @@
       <c r="C65" s="7"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F65" s="17"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+    </row>
+    <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>12</v>
       </c>
@@ -2081,13 +2292,17 @@
       <c r="E66" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="F66" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H66" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
     </row>
     <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
@@ -2099,11 +2314,15 @@
       <c r="E67" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="F67" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
     </row>
     <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
@@ -2115,75 +2334,97 @@
       <c r="E68" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="F68" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
     </row>
     <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F70" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G70" s="3"/>
+      <c r="H70" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+    </row>
+    <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="F71" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G71" s="3"/>
+      <c r="H71" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+    </row>
+    <row r="72" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+        <v>216</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="G72" s="3"/>
+      <c r="H72" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I72" s="23"/>
+      <c r="J72" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
@@ -2191,13 +2432,13 @@
       <c r="C73" s="7"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F73" s="17"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+    </row>
+    <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>13</v>
       </c>
@@ -2205,7 +2446,7 @@
         <v>37</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>16</v>
@@ -2213,13 +2454,17 @@
       <c r="E74" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="F74" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H74" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
     </row>
     <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
@@ -2231,11 +2476,15 @@
       <c r="E75" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="F75" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
     </row>
     <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
@@ -2247,75 +2496,97 @@
       <c r="E76" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
+      <c r="F76" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G76" s="3"/>
+      <c r="H76" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
     </row>
     <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F78" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G78" s="3"/>
+      <c r="H78" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+    </row>
+    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-    </row>
-    <row r="80" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G79" s="3"/>
+      <c r="H79" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+    </row>
+    <row r="80" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
+        <v>216</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="G80" s="3"/>
+      <c r="H80" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I80" s="23"/>
+      <c r="J80" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
@@ -2323,13 +2594,13 @@
       <c r="C81" s="7"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F81" s="17"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+    </row>
+    <row r="82" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>14</v>
       </c>
@@ -2337,7 +2608,7 @@
         <v>37</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>16</v>
@@ -2345,29 +2616,37 @@
       <c r="E82" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
+      <c r="F82" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H82" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
     </row>
     <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E83" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E83" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
+      <c r="F83" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
     </row>
     <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
@@ -2379,75 +2658,97 @@
       <c r="E84" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
+      <c r="F84" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G84" s="3"/>
+      <c r="H84" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E85" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E85" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
+      <c r="F85" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G85" s="3"/>
+      <c r="H85" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
     </row>
     <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F86" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G86" s="3"/>
+      <c r="H86" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
+    </row>
+    <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E87" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E87" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-    </row>
-    <row r="88" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="F87" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G87" s="3"/>
+      <c r="H87" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
+    </row>
+    <row r="88" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
+        <v>217</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="G88" s="3"/>
+      <c r="H88" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I88" s="23"/>
+      <c r="J88" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
@@ -2455,13 +2756,13 @@
       <c r="C89" s="7"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F89" s="17"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+    </row>
+    <row r="90" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>15</v>
       </c>
@@ -2469,7 +2770,7 @@
         <v>37</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>16</v>
@@ -2477,29 +2778,37 @@
       <c r="E90" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
+      <c r="F90" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H90" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I90" s="23"/>
+      <c r="J90" s="23"/>
     </row>
     <row r="91" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E91" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E91" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
+      <c r="F91" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G91" s="3"/>
+      <c r="H91" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
     </row>
     <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
@@ -2511,75 +2820,97 @@
       <c r="E92" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
+      <c r="F92" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G92" s="3"/>
+      <c r="H92" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I92" s="23"/>
+      <c r="J92" s="23"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E93" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E93" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
+      <c r="F93" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G93" s="3"/>
+      <c r="H93" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I93" s="23"/>
+      <c r="J93" s="23"/>
     </row>
     <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F94" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G94" s="3"/>
+      <c r="H94" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23"/>
+    </row>
+    <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E95" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E95" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-    </row>
-    <row r="96" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="F95" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
+    </row>
+    <row r="96" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
+        <v>217</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="G96" s="3"/>
+      <c r="H96" s="22">
+        <v>44046</v>
+      </c>
+      <c r="I96" s="23"/>
+      <c r="J96" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
@@ -2593,7 +2924,7 @@
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>16</v>
       </c>
@@ -2601,7 +2932,7 @@
         <v>37</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>16</v>
@@ -2609,141 +2940,159 @@
       <c r="E98" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
+      <c r="F98" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G98" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="20"/>
     </row>
     <row r="99" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E99" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E99" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
+      <c r="F99" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="20"/>
     </row>
     <row r="100" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E100" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E100" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F100" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="20"/>
+    </row>
+    <row r="101" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="F101" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G101" s="20"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="20"/>
     </row>
     <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E102" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F102" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
+    </row>
+    <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
+        <v>195</v>
+      </c>
+      <c r="F103" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="20"/>
     </row>
     <row r="104" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F104" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G104" s="20"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="20"/>
+    </row>
+    <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="F105" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G105" s="20"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="20"/>
     </row>
     <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E106" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E106" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
+      <c r="F106" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G106" s="20"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="20"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
@@ -2751,13 +3100,13 @@
       <c r="C107" s="7"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="15"/>
+    </row>
+    <row r="108" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>17</v>
       </c>
@@ -2765,7 +3114,7 @@
         <v>37</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>16</v>
@@ -2773,141 +3122,159 @@
       <c r="E108" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
+      <c r="F108" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G108" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="20"/>
     </row>
     <row r="109" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E109" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E109" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
+      <c r="F109" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="20"/>
     </row>
     <row r="110" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E110" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E110" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F110" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G110" s="20"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="20"/>
+    </row>
+    <row r="111" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="F111" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G111" s="20"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="20"/>
     </row>
     <row r="112" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F112" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G112" s="20"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="20"/>
+    </row>
+    <row r="113" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
+        <v>195</v>
+      </c>
+      <c r="F113" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G113" s="20"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="20"/>
     </row>
     <row r="114" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F114" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G114" s="20"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="20"/>
+    </row>
+    <row r="115" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E115" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E115" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
+      <c r="F115" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="20"/>
     </row>
     <row r="116" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E116" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E116" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
+      <c r="F116" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="20"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
@@ -2915,13 +3282,13 @@
       <c r="C117" s="7"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="15"/>
+    </row>
+    <row r="118" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>18</v>
       </c>
@@ -2929,7 +3296,7 @@
         <v>37</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>16</v>
@@ -2937,141 +3304,159 @@
       <c r="E118" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
+      <c r="F118" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G118" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="20"/>
     </row>
     <row r="119" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E119" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E119" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
+      <c r="F119" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G119" s="20"/>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="20"/>
     </row>
     <row r="120" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E120" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E120" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F120" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G120" s="20"/>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="20"/>
+    </row>
+    <row r="121" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="F121" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G121" s="20"/>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="20"/>
     </row>
     <row r="122" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E122" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F122" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="20"/>
+    </row>
+    <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
+        <v>195</v>
+      </c>
+      <c r="F123" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G123" s="20"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="20"/>
     </row>
     <row r="124" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F124" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="20"/>
+    </row>
+    <row r="125" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E125" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E125" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
+      <c r="F125" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G125" s="20"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="20"/>
     </row>
     <row r="126" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E126" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E126" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
+      <c r="F126" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G126" s="20"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="20"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
@@ -3079,13 +3464,13 @@
       <c r="C127" s="7"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
-      <c r="I127" s="7"/>
-      <c r="J127" s="7"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="15"/>
+    </row>
+    <row r="128" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>19</v>
       </c>
@@ -3093,7 +3478,7 @@
         <v>37</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>16</v>
@@ -3101,141 +3486,161 @@
       <c r="E128" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
+      <c r="F128" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G128" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="20"/>
     </row>
     <row r="129" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E129" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E129" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
+      <c r="F129" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G129" s="20"/>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
+      <c r="J129" s="20"/>
     </row>
     <row r="130" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E130" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E130" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F130" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G130" s="20"/>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="20"/>
+    </row>
+    <row r="131" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
+        <v>181</v>
+      </c>
+      <c r="F131" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G131" s="20"/>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="20"/>
     </row>
     <row r="132" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E132" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F132" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G132" s="20"/>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="20"/>
+    </row>
+    <row r="133" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E133" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E133" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
+      <c r="F133" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G133" s="20"/>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="20"/>
     </row>
     <row r="134" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F134" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G134" s="20"/>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="20"/>
+    </row>
+    <row r="135" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E135" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E135" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
-    </row>
-    <row r="136" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F135" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G135" s="20"/>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="20"/>
+    </row>
+    <row r="136" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="10" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
@@ -3243,13 +3648,13 @@
       <c r="C137" s="7"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="15"/>
+    </row>
+    <row r="138" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>20</v>
       </c>
@@ -3257,7 +3662,7 @@
         <v>37</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>16</v>
@@ -3265,141 +3670,161 @@
       <c r="E138" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
+      <c r="F138" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G138" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H138" s="20"/>
+      <c r="I138" s="20"/>
+      <c r="J138" s="20"/>
     </row>
     <row r="139" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E139" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E139" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
+      <c r="F139" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G139" s="20"/>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="20"/>
     </row>
     <row r="140" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E140" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E140" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F140" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G140" s="20"/>
+      <c r="H140" s="20"/>
+      <c r="I140" s="20"/>
+      <c r="J140" s="20"/>
+    </row>
+    <row r="141" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
+        <v>181</v>
+      </c>
+      <c r="F141" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G141" s="20"/>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="20"/>
     </row>
     <row r="142" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E142" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F142" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G142" s="20"/>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
+      <c r="J142" s="20"/>
+    </row>
+    <row r="143" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E143" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E143" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
+      <c r="F143" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G143" s="20"/>
+      <c r="H143" s="20"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="20"/>
     </row>
     <row r="144" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F144" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G144" s="20"/>
+      <c r="H144" s="20"/>
+      <c r="I144" s="20"/>
+      <c r="J144" s="20"/>
+    </row>
+    <row r="145" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E145" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E145" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
-    </row>
-    <row r="146" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F145" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G145" s="20"/>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="20"/>
+    </row>
+    <row r="146" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="G146" s="20"/>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="10" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
@@ -3421,7 +3846,7 @@
         <v>37</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>16</v>
@@ -3431,7 +3856,7 @@
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -3442,10 +3867,10 @@
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -3458,10 +3883,10 @@
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E150" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
@@ -3474,10 +3899,10 @@
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -3490,7 +3915,7 @@
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E152" s="11" t="s">
         <v>72</v>
@@ -3506,10 +3931,10 @@
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
@@ -3522,7 +3947,7 @@
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>44</v>
@@ -3538,10 +3963,10 @@
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
@@ -3554,10 +3979,10 @@
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -3585,7 +4010,7 @@
         <v>37</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D158" s="8" t="s">
         <v>16</v>
@@ -3595,7 +4020,7 @@
       </c>
       <c r="F158" s="1"/>
       <c r="G158" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -3606,10 +4031,10 @@
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E159" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="E159" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
@@ -3622,10 +4047,10 @@
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E160" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
@@ -3638,10 +4063,10 @@
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
@@ -3654,7 +4079,7 @@
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E162" s="11" t="s">
         <v>72</v>
@@ -3670,10 +4095,10 @@
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E163" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="E163" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
@@ -3686,7 +4111,7 @@
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E164" s="8" t="s">
         <v>44</v>
@@ -3702,10 +4127,10 @@
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
@@ -3718,10 +4143,10 @@
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
@@ -3749,7 +4174,7 @@
         <v>37</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D168" s="8" t="s">
         <v>16</v>
@@ -3759,7 +4184,7 @@
       </c>
       <c r="F168" s="1"/>
       <c r="G168" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -3770,10 +4195,10 @@
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -3786,10 +4211,10 @@
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E170" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="E170" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
@@ -3802,10 +4227,10 @@
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
@@ -3818,7 +4243,7 @@
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E172" s="11" t="s">
         <v>72</v>
@@ -3834,10 +4259,10 @@
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
@@ -3850,7 +4275,7 @@
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E174" s="8" t="s">
         <v>44</v>
@@ -3866,10 +4291,10 @@
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
@@ -3882,10 +4307,10 @@
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
@@ -3913,7 +4338,7 @@
         <v>37</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D178" s="8" t="s">
         <v>16</v>
@@ -3923,7 +4348,7 @@
       </c>
       <c r="F178" s="1"/>
       <c r="G178" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -3934,10 +4359,10 @@
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E179" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="E179" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
@@ -3950,10 +4375,10 @@
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E180" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="E180" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
@@ -3966,10 +4391,10 @@
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
@@ -3982,7 +4407,7 @@
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E182" s="11" t="s">
         <v>72</v>
@@ -3998,10 +4423,10 @@
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E183" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="E183" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
@@ -4014,7 +4439,7 @@
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E184" s="8" t="s">
         <v>44</v>
@@ -4030,10 +4455,10 @@
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
@@ -4046,10 +4471,10 @@
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E186" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
@@ -4077,7 +4502,7 @@
         <v>37</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D188" s="8" t="s">
         <v>16</v>
@@ -4087,7 +4512,7 @@
       </c>
       <c r="F188" s="1"/>
       <c r="G188" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
@@ -4098,10 +4523,10 @@
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E189" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
@@ -4114,10 +4539,10 @@
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E190" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="E190" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
@@ -4130,10 +4555,10 @@
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
@@ -4146,7 +4571,7 @@
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E192" s="11" t="s">
         <v>72</v>
@@ -4162,10 +4587,10 @@
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
@@ -4178,7 +4603,7 @@
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E194" s="8" t="s">
         <v>44</v>
@@ -4194,10 +4619,10 @@
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E195" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
@@ -4210,10 +4635,10 @@
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E196" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
@@ -4241,7 +4666,7 @@
         <v>37</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D198" s="8" t="s">
         <v>16</v>
@@ -4249,23 +4674,27 @@
       <c r="E198" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F198" s="1"/>
+      <c r="F198" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="G198" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
-      <c r="J198" s="1"/>
+      <c r="J198" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
@@ -4278,10 +4707,10 @@
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E200" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="E200" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
@@ -4294,10 +4723,10 @@
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
       <c r="D201" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
@@ -4310,7 +4739,7 @@
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
       <c r="D202" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E202" s="11" t="s">
         <v>72</v>
@@ -4326,10 +4755,10 @@
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
       <c r="D203" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
@@ -4342,7 +4771,7 @@
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E204" s="8" t="s">
         <v>44</v>
@@ -4358,10 +4787,10 @@
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E205" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
@@ -4374,10 +4803,10 @@
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E206" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
@@ -4405,7 +4834,7 @@
         <v>37</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D208" s="8" t="s">
         <v>16</v>
@@ -4413,23 +4842,27 @@
       <c r="E208" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F208" s="1"/>
+      <c r="F208" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="G208" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
-      <c r="J208" s="1"/>
+      <c r="J208" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="209" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
       <c r="D209" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E209" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
@@ -4442,10 +4875,10 @@
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
       <c r="D210" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E210" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="E210" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
@@ -4458,10 +4891,10 @@
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
       <c r="D211" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
@@ -4474,7 +4907,7 @@
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
       <c r="D212" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E212" s="11" t="s">
         <v>72</v>
@@ -4490,10 +4923,10 @@
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
       <c r="D213" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
@@ -4506,7 +4939,7 @@
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E214" s="8" t="s">
         <v>44</v>
@@ -4522,10 +4955,10 @@
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E215" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
@@ -4538,10 +4971,10 @@
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E216" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
@@ -4569,7 +5002,7 @@
         <v>37</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D218" s="8" t="s">
         <v>16</v>
@@ -4577,23 +5010,27 @@
       <c r="E218" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F218" s="1"/>
+      <c r="F218" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="G218" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
-      <c r="J218" s="1"/>
+      <c r="J218" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
       <c r="D219" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E219" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
@@ -4606,10 +5043,10 @@
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
       <c r="D220" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E220" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="E220" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
@@ -4622,10 +5059,10 @@
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
       <c r="D221" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E221" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
@@ -4638,7 +5075,7 @@
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
       <c r="D222" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E222" s="11" t="s">
         <v>72</v>
@@ -4654,10 +5091,10 @@
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
       <c r="D223" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E223" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
@@ -4670,7 +5107,7 @@
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E224" s="8" t="s">
         <v>44</v>
@@ -4686,10 +5123,10 @@
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E225" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
@@ -4702,10 +5139,10 @@
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E226" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
@@ -4733,7 +5170,7 @@
         <v>37</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D228" s="8" t="s">
         <v>16</v>
@@ -4741,23 +5178,27 @@
       <c r="E228" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F228" s="1"/>
+      <c r="F228" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="G228" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
-      <c r="J228" s="1"/>
+      <c r="J228" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="229" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
       <c r="D229" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E229" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
@@ -4770,10 +5211,10 @@
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
       <c r="D230" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E230" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="E230" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
@@ -4786,10 +5227,10 @@
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
       <c r="D231" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E231" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
@@ -4802,7 +5243,7 @@
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
       <c r="D232" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E232" s="11" t="s">
         <v>72</v>
@@ -4818,10 +5259,10 @@
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
       <c r="D233" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
@@ -4834,7 +5275,7 @@
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E234" s="8" t="s">
         <v>44</v>
@@ -4850,10 +5291,10 @@
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E235" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
@@ -4866,10 +5307,10 @@
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E236" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
@@ -4897,7 +5338,7 @@
         <v>37</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D238" s="8" t="s">
         <v>16</v>
@@ -4905,23 +5346,27 @@
       <c r="E238" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F238" s="1"/>
+      <c r="F238" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="G238" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
-      <c r="J238" s="1"/>
+      <c r="J238" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
       <c r="D239" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E239" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
@@ -4934,10 +5379,10 @@
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
       <c r="D240" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E240" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="E240" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
@@ -4950,10 +5395,10 @@
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
       <c r="D241" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E241" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
@@ -4966,7 +5411,7 @@
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
       <c r="D242" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E242" s="11" t="s">
         <v>72</v>
@@ -4982,10 +5427,10 @@
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
       <c r="D243" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E243" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
@@ -4998,7 +5443,7 @@
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E244" s="8" t="s">
         <v>44</v>
@@ -5014,10 +5459,10 @@
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E245" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
@@ -5030,10 +5475,10 @@
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E246" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>

--- a/EvaluationTest/User_Test_Cases.xlsx
+++ b/EvaluationTest/User_Test_Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\TeamRocket\EvaluationTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6251B1-BC44-436A-A64A-D3E6D38957E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6560A6B-DE87-43D4-92E2-7A39B50B59EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,12 +168,6 @@
     <t>Should be able to type date as "03 march 2020".</t>
   </si>
   <si>
-    <t>5. Message "There were 12 of confirmed Cases in ireland on 2020-03-03" is displayed on the chatbot.</t>
-  </si>
-  <si>
-    <t>Message "There were 12 of confirmed Cases in ireland on 2020-03-03" should be displayed on the chatbot.</t>
-  </si>
-  <si>
     <t>Should be able to type date as "03-03-2020".</t>
   </si>
   <si>
@@ -195,12 +189,6 @@
     <t>Should be able to type date as "07 April 2020".</t>
   </si>
   <si>
-    <t>5. Message "There were 8413 of Active Cases in Ireland on 2020-04-07" is displayed on the chatbot.</t>
-  </si>
-  <si>
-    <t>Message "There were 8413 of Active Cases in Ireland on 2020-04-07" should be displayed on the chatbot.</t>
-  </si>
-  <si>
     <t>9- Asking for Covid Statistics</t>
   </si>
   <si>
@@ -249,12 +237,6 @@
     <t>Should be able to type date as "22 May 2020".</t>
   </si>
   <si>
-    <t>5. Message "There were 298 of Death Cases in Ireland on 2020-06-08" is displayed on the chatbot.</t>
-  </si>
-  <si>
-    <t>Message "There were 298 of Death Cases in Ireland on 2020-06-08" should be displayed on the chatbot.</t>
-  </si>
-  <si>
     <t>13- Asking for Covid Statistics</t>
   </si>
   <si>
@@ -270,9 +252,6 @@
     <t>6. Type date as "22 May 2020"</t>
   </si>
   <si>
-    <t>7. Message "There were 13915 of Recovered Cases in Ireland on 2020-05-22" is displayed on the chatbot.</t>
-  </si>
-  <si>
     <t>Should be able to type date as "05-22-2020".</t>
   </si>
   <si>
@@ -379,9 +358,6 @@
   </si>
   <si>
     <t>Should be able to type date as "07-06-2020".</t>
-  </si>
-  <si>
-    <t>9. Message "There were 12359 of Active Cases in ireland on 2020-07-06" is displayed on the chatbot.</t>
   </si>
   <si>
     <t>21- Asking for Covid Statistics</t>
@@ -699,6 +675,30 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>Message "There were 2 of confirmed Cases in ireland on 2020-03-03" should be displayed on the chatbot.</t>
+  </si>
+  <si>
+    <t>5. Message "There were 2 of confirmed Cases in ireland on 2020-03-03" is displayed on the chatbot.</t>
+  </si>
+  <si>
+    <t>5. Message "There were 5474 of Active Cases in Ireland on 2020-04-07" is displayed on the chatbot.</t>
+  </si>
+  <si>
+    <t>Message "There were 5474 of Active Cases in Ireland on 2020-04-07" should be displayed on the chatbot.</t>
+  </si>
+  <si>
+    <t>5. Message "There were 1683 of Death Cases in Ireland on 2020-06-08" is displayed on the chatbot.</t>
+  </si>
+  <si>
+    <t>7. Message "There were 21060 of Recovered Cases in Ireland on 2020-05-22" is displayed on the chatbot.</t>
+  </si>
+  <si>
+    <t>7. Message "There were 1024 of Recovered Cases in Ireland on 2020-05-22" is displayed on the chatbot.</t>
+  </si>
+  <si>
+    <t>9. Message "There were 426 of Active Cases in ireland on 2020-07-06" is displayed on the chatbot.</t>
   </si>
 </sst>
 </file>
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D235" workbookViewId="0">
-      <selection activeCell="F249" sqref="F249"/>
+    <sheetView tabSelected="1" topLeftCell="D251" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138:C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,15 +1211,15 @@
         <v>17</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1233,7 +1233,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1251,7 +1251,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -1269,7 +1269,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
@@ -1287,7 +1287,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
@@ -1323,10 +1323,10 @@
         <v>17</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
@@ -1343,13 +1343,13 @@
         <v>34</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="8" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1363,7 +1363,7 @@
         <v>31</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -1399,10 +1399,10 @@
         <v>17</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
@@ -1419,7 +1419,7 @@
         <v>33</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
@@ -1437,7 +1437,7 @@
         <v>31</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
@@ -1473,10 +1473,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
@@ -1493,7 +1493,7 @@
         <v>33</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
@@ -1511,7 +1511,7 @@
         <v>31</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
@@ -1547,10 +1547,10 @@
         <v>17</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -1567,7 +1567,7 @@
         <v>36</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
@@ -1585,7 +1585,7 @@
         <v>31</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
@@ -1621,10 +1621,10 @@
         <v>17</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -1641,7 +1641,7 @@
         <v>43</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="8"/>
@@ -1653,13 +1653,13 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="8" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="8"/>
@@ -1677,7 +1677,7 @@
         <v>46</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="10"/>
@@ -1689,13 +1689,13 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="10" t="s">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="10"/>
@@ -1722,7 +1722,7 @@
         <v>37</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>16</v>
@@ -1731,10 +1731,10 @@
         <v>17</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
@@ -1751,7 +1751,7 @@
         <v>43</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="10"/>
@@ -1763,13 +1763,13 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="8" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="10"/>
@@ -1781,13 +1781,13 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="10"/>
@@ -1799,13 +1799,13 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="10" t="s">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G40" s="18"/>
       <c r="H40" s="10"/>
@@ -1832,7 +1832,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>16</v>
@@ -1841,10 +1841,10 @@
         <v>17</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
@@ -1855,13 +1855,13 @@
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="10"/>
@@ -1873,13 +1873,13 @@
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="8" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="10"/>
@@ -1891,13 +1891,13 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="10"/>
@@ -1909,13 +1909,13 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="10" t="s">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="10"/>
@@ -1942,7 +1942,7 @@
         <v>37</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>16</v>
@@ -1951,10 +1951,10 @@
         <v>17</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
@@ -1965,13 +1965,13 @@
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G49" s="18"/>
       <c r="H49" s="10"/>
@@ -1983,13 +1983,13 @@
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="8" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G50" s="18"/>
       <c r="H50" s="10"/>
@@ -2001,13 +2001,13 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G51" s="18"/>
       <c r="H51" s="10"/>
@@ -2019,13 +2019,13 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="10" t="s">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G52" s="18"/>
       <c r="H52" s="10"/>
@@ -2052,7 +2052,7 @@
         <v>37</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>16</v>
@@ -2061,10 +2061,10 @@
         <v>17</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
@@ -2075,13 +2075,13 @@
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="8" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E55" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F55" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>201</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
@@ -2093,13 +2093,13 @@
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="8" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -2111,13 +2111,13 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
@@ -2129,13 +2129,13 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="10" t="s">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
@@ -2162,7 +2162,7 @@
         <v>37</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>16</v>
@@ -2171,10 +2171,10 @@
         <v>17</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H60" s="22">
         <v>44046</v>
@@ -2187,13 +2187,13 @@
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="8" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="22">
@@ -2207,13 +2207,13 @@
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="8" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="22">
@@ -2227,13 +2227,13 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="22">
@@ -2247,13 +2247,13 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="10" t="s">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="22">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="I64" s="23"/>
       <c r="J64" s="10" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2284,7 +2284,7 @@
         <v>37</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>16</v>
@@ -2293,10 +2293,10 @@
         <v>17</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H66" s="22">
         <v>44046</v>
@@ -2309,13 +2309,13 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="22">
@@ -2329,13 +2329,13 @@
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="22">
@@ -2349,13 +2349,13 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="22">
@@ -2369,13 +2369,13 @@
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="8" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="22">
@@ -2389,13 +2389,13 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="22">
@@ -2409,13 +2409,13 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="10" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="22">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="I72" s="23"/>
       <c r="J72" s="10" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -2446,7 +2446,7 @@
         <v>37</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>16</v>
@@ -2455,10 +2455,10 @@
         <v>17</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H74" s="22">
         <v>44046</v>
@@ -2471,13 +2471,13 @@
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="22">
@@ -2491,13 +2491,13 @@
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="22">
@@ -2511,13 +2511,13 @@
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="22">
@@ -2531,13 +2531,13 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="8" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="22">
@@ -2551,13 +2551,13 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="22">
@@ -2571,13 +2571,13 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="10" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="22">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="I80" s="23"/>
       <c r="J80" s="10" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -2608,7 +2608,7 @@
         <v>37</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>16</v>
@@ -2617,10 +2617,10 @@
         <v>17</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H82" s="22">
         <v>44046</v>
@@ -2633,13 +2633,13 @@
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="22">
@@ -2653,13 +2653,13 @@
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="22">
@@ -2673,13 +2673,13 @@
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="22">
@@ -2693,13 +2693,13 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="8" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="22">
@@ -2713,13 +2713,13 @@
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="22">
@@ -2733,13 +2733,13 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="10" t="s">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="22">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="I88" s="23"/>
       <c r="J88" s="10" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -2770,7 +2770,7 @@
         <v>37</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>16</v>
@@ -2779,10 +2779,10 @@
         <v>17</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H90" s="22">
         <v>44046</v>
@@ -2795,13 +2795,13 @@
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="22">
@@ -2815,13 +2815,13 @@
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="22">
@@ -2835,13 +2835,13 @@
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="22">
@@ -2855,13 +2855,13 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="8" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="22">
@@ -2875,13 +2875,13 @@
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="22">
@@ -2895,13 +2895,13 @@
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="10" t="s">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="22">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="I96" s="23"/>
       <c r="J96" s="10" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -2932,7 +2932,7 @@
         <v>37</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>16</v>
@@ -2941,10 +2941,10 @@
         <v>17</v>
       </c>
       <c r="F98" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H98" s="20"/>
       <c r="I98" s="20"/>
@@ -2955,13 +2955,13 @@
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F99" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G99" s="20"/>
       <c r="H99" s="20"/>
@@ -2973,13 +2973,13 @@
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F100" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G100" s="20"/>
       <c r="H100" s="20"/>
@@ -2991,13 +2991,13 @@
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="8" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F101" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G101" s="20"/>
       <c r="H101" s="20"/>
@@ -3009,13 +3009,13 @@
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F102" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G102" s="20"/>
       <c r="H102" s="20"/>
@@ -3027,13 +3027,13 @@
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="8" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F103" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G103" s="20"/>
       <c r="H103" s="20"/>
@@ -3045,13 +3045,13 @@
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F104" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G104" s="20"/>
       <c r="H104" s="20"/>
@@ -3063,13 +3063,13 @@
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="10" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F105" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G105" s="20"/>
       <c r="H105" s="20"/>
@@ -3081,13 +3081,13 @@
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F106" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G106" s="20"/>
       <c r="H106" s="20"/>
@@ -3114,7 +3114,7 @@
         <v>37</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>16</v>
@@ -3123,10 +3123,10 @@
         <v>17</v>
       </c>
       <c r="F108" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G108" s="20" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H108" s="20"/>
       <c r="I108" s="20"/>
@@ -3137,13 +3137,13 @@
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F109" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G109" s="20"/>
       <c r="H109" s="20"/>
@@ -3155,13 +3155,13 @@
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F110" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G110" s="20"/>
       <c r="H110" s="20"/>
@@ -3173,13 +3173,13 @@
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="8" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F111" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G111" s="20"/>
       <c r="H111" s="20"/>
@@ -3191,13 +3191,13 @@
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F112" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G112" s="20"/>
       <c r="H112" s="20"/>
@@ -3209,13 +3209,13 @@
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="8" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F113" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G113" s="20"/>
       <c r="H113" s="20"/>
@@ -3227,13 +3227,13 @@
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F114" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G114" s="20"/>
       <c r="H114" s="20"/>
@@ -3245,13 +3245,13 @@
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F115" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G115" s="20"/>
       <c r="H115" s="20"/>
@@ -3263,13 +3263,13 @@
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F116" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G116" s="20"/>
       <c r="H116" s="20"/>
@@ -3296,7 +3296,7 @@
         <v>37</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>16</v>
@@ -3305,10 +3305,10 @@
         <v>17</v>
       </c>
       <c r="F118" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G118" s="20" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H118" s="20"/>
       <c r="I118" s="20"/>
@@ -3319,13 +3319,13 @@
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F119" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G119" s="20"/>
       <c r="H119" s="20"/>
@@ -3337,13 +3337,13 @@
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F120" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G120" s="20"/>
       <c r="H120" s="20"/>
@@ -3355,13 +3355,13 @@
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="8" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F121" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G121" s="20"/>
       <c r="H121" s="20"/>
@@ -3373,13 +3373,13 @@
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F122" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G122" s="20"/>
       <c r="H122" s="20"/>
@@ -3391,13 +3391,13 @@
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="8" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F123" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G123" s="20"/>
       <c r="H123" s="20"/>
@@ -3409,13 +3409,13 @@
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F124" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G124" s="20"/>
       <c r="H124" s="20"/>
@@ -3427,13 +3427,13 @@
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F125" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G125" s="20"/>
       <c r="H125" s="20"/>
@@ -3445,13 +3445,13 @@
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F126" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G126" s="20"/>
       <c r="H126" s="20"/>
@@ -3478,7 +3478,7 @@
         <v>37</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>16</v>
@@ -3487,10 +3487,10 @@
         <v>17</v>
       </c>
       <c r="F128" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G128" s="20" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H128" s="20"/>
       <c r="I128" s="20"/>
@@ -3501,13 +3501,13 @@
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F129" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G129" s="20"/>
       <c r="H129" s="20"/>
@@ -3519,13 +3519,13 @@
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F130" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G130" s="20"/>
       <c r="H130" s="20"/>
@@ -3537,13 +3537,13 @@
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="8" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F131" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G131" s="20"/>
       <c r="H131" s="20"/>
@@ -3555,13 +3555,13 @@
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F132" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G132" s="20"/>
       <c r="H132" s="20"/>
@@ -3573,13 +3573,13 @@
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F133" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G133" s="20"/>
       <c r="H133" s="20"/>
@@ -3591,13 +3591,13 @@
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F134" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G134" s="20"/>
       <c r="H134" s="20"/>
@@ -3609,13 +3609,13 @@
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F135" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G135" s="20"/>
       <c r="H135" s="20"/>
@@ -3627,19 +3627,19 @@
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="10" t="s">
-        <v>118</v>
+        <v>223</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G136" s="10"/>
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
       <c r="J136" s="10" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -3662,7 +3662,7 @@
         <v>37</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>16</v>
@@ -3671,10 +3671,10 @@
         <v>17</v>
       </c>
       <c r="F138" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G138" s="20" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
@@ -3685,13 +3685,13 @@
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F139" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G139" s="20"/>
       <c r="H139" s="20"/>
@@ -3703,13 +3703,13 @@
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F140" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G140" s="20"/>
       <c r="H140" s="20"/>
@@ -3721,13 +3721,13 @@
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="8" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F141" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G141" s="20"/>
       <c r="H141" s="20"/>
@@ -3739,13 +3739,13 @@
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F142" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G142" s="20"/>
       <c r="H142" s="20"/>
@@ -3757,13 +3757,13 @@
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F143" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G143" s="20"/>
       <c r="H143" s="20"/>
@@ -3775,13 +3775,13 @@
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F144" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G144" s="20"/>
       <c r="H144" s="20"/>
@@ -3793,13 +3793,13 @@
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F145" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G145" s="20"/>
       <c r="H145" s="20"/>
@@ -3811,19 +3811,19 @@
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="10" t="s">
-        <v>118</v>
+        <v>223</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G146" s="20"/>
       <c r="H146" s="20"/>
       <c r="I146" s="20"/>
       <c r="J146" s="10" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -3846,7 +3846,7 @@
         <v>37</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>16</v>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -3867,10 +3867,10 @@
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -3883,10 +3883,10 @@
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
@@ -3899,10 +3899,10 @@
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="8" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -3915,10 +3915,10 @@
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -3931,10 +3931,10 @@
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="8" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
@@ -3947,7 +3947,7 @@
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>44</v>
@@ -3963,10 +3963,10 @@
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
@@ -3979,10 +3979,10 @@
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -4010,7 +4010,7 @@
         <v>37</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D158" s="8" t="s">
         <v>16</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="F158" s="1"/>
       <c r="G158" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -4031,10 +4031,10 @@
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
@@ -4047,10 +4047,10 @@
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
@@ -4063,10 +4063,10 @@
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="8" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
@@ -4079,10 +4079,10 @@
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
@@ -4095,10 +4095,10 @@
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
@@ -4111,7 +4111,7 @@
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E164" s="8" t="s">
         <v>44</v>
@@ -4127,10 +4127,10 @@
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
@@ -4143,10 +4143,10 @@
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
@@ -4174,7 +4174,7 @@
         <v>37</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D168" s="8" t="s">
         <v>16</v>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="F168" s="1"/>
       <c r="G168" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -4195,10 +4195,10 @@
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -4211,10 +4211,10 @@
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
@@ -4227,10 +4227,10 @@
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="8" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
@@ -4243,10 +4243,10 @@
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
@@ -4259,10 +4259,10 @@
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
@@ -4275,7 +4275,7 @@
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E174" s="8" t="s">
         <v>44</v>
@@ -4291,10 +4291,10 @@
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
@@ -4307,10 +4307,10 @@
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="10" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
@@ -4338,7 +4338,7 @@
         <v>37</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D178" s="8" t="s">
         <v>16</v>
@@ -4348,7 +4348,7 @@
       </c>
       <c r="F178" s="1"/>
       <c r="G178" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -4359,10 +4359,10 @@
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
@@ -4375,10 +4375,10 @@
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
@@ -4391,10 +4391,10 @@
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="8" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
@@ -4407,10 +4407,10 @@
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E182" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
@@ -4423,10 +4423,10 @@
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
@@ -4439,7 +4439,7 @@
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E184" s="8" t="s">
         <v>44</v>
@@ -4455,10 +4455,10 @@
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="10" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
@@ -4471,10 +4471,10 @@
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="10" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E186" s="10" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
@@ -4502,7 +4502,7 @@
         <v>37</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D188" s="8" t="s">
         <v>16</v>
@@ -4512,7 +4512,7 @@
       </c>
       <c r="F188" s="1"/>
       <c r="G188" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
@@ -4523,10 +4523,10 @@
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E189" s="8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
@@ -4539,10 +4539,10 @@
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
@@ -4555,10 +4555,10 @@
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="8" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
@@ -4571,10 +4571,10 @@
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E192" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
@@ -4587,10 +4587,10 @@
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
@@ -4603,7 +4603,7 @@
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E194" s="8" t="s">
         <v>44</v>
@@ -4619,10 +4619,10 @@
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E195" s="10" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
@@ -4635,10 +4635,10 @@
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="10" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E196" s="10" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
@@ -4666,7 +4666,7 @@
         <v>37</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D198" s="8" t="s">
         <v>16</v>
@@ -4675,15 +4675,15 @@
         <v>17</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -4691,10 +4691,10 @@
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
@@ -4707,10 +4707,10 @@
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E200" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
@@ -4723,10 +4723,10 @@
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
       <c r="D201" s="8" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
@@ -4739,10 +4739,10 @@
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
       <c r="D202" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E202" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
@@ -4755,10 +4755,10 @@
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
       <c r="D203" s="8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
@@ -4771,7 +4771,7 @@
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E204" s="8" t="s">
         <v>44</v>
@@ -4787,10 +4787,10 @@
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="10" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E205" s="10" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
@@ -4803,10 +4803,10 @@
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="10" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E206" s="10" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
@@ -4834,7 +4834,7 @@
         <v>37</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D208" s="8" t="s">
         <v>16</v>
@@ -4843,15 +4843,15 @@
         <v>17</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -4859,10 +4859,10 @@
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
       <c r="D209" s="8" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E209" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
@@ -4875,10 +4875,10 @@
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
       <c r="D210" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E210" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
@@ -4891,10 +4891,10 @@
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
       <c r="D211" s="8" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
@@ -4907,10 +4907,10 @@
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
       <c r="D212" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E212" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
@@ -4923,10 +4923,10 @@
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
       <c r="D213" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
@@ -4939,7 +4939,7 @@
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E214" s="8" t="s">
         <v>44</v>
@@ -4955,10 +4955,10 @@
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="10" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E215" s="10" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
@@ -4971,10 +4971,10 @@
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="10" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E216" s="10" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
@@ -5002,7 +5002,7 @@
         <v>37</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D218" s="8" t="s">
         <v>16</v>
@@ -5011,15 +5011,15 @@
         <v>17</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -5027,10 +5027,10 @@
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
       <c r="D219" s="8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E219" s="8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
@@ -5043,10 +5043,10 @@
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
       <c r="D220" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E220" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
@@ -5059,10 +5059,10 @@
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
       <c r="D221" s="8" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E221" s="8" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
@@ -5075,10 +5075,10 @@
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
       <c r="D222" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E222" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
@@ -5091,10 +5091,10 @@
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
       <c r="D223" s="8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E223" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
@@ -5107,7 +5107,7 @@
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E224" s="8" t="s">
         <v>44</v>
@@ -5123,10 +5123,10 @@
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E225" s="10" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
@@ -5139,10 +5139,10 @@
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="10" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E226" s="10" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
@@ -5170,7 +5170,7 @@
         <v>37</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D228" s="8" t="s">
         <v>16</v>
@@ -5179,15 +5179,15 @@
         <v>17</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
       <c r="J228" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -5195,10 +5195,10 @@
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
       <c r="D229" s="8" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E229" s="8" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
@@ -5211,10 +5211,10 @@
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
       <c r="D230" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E230" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
@@ -5227,10 +5227,10 @@
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
       <c r="D231" s="8" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E231" s="8" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
@@ -5243,10 +5243,10 @@
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
       <c r="D232" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E232" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
@@ -5259,10 +5259,10 @@
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
       <c r="D233" s="8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
@@ -5275,7 +5275,7 @@
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E234" s="8" t="s">
         <v>44</v>
@@ -5291,10 +5291,10 @@
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="10" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E235" s="10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
@@ -5307,10 +5307,10 @@
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E236" s="10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
@@ -5338,7 +5338,7 @@
         <v>37</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D238" s="8" t="s">
         <v>16</v>
@@ -5347,15 +5347,15 @@
         <v>17</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
       <c r="J238" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -5363,10 +5363,10 @@
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
       <c r="D239" s="8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E239" s="8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
@@ -5379,10 +5379,10 @@
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
       <c r="D240" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E240" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
@@ -5395,10 +5395,10 @@
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
       <c r="D241" s="8" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E241" s="8" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
@@ -5411,10 +5411,10 @@
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
       <c r="D242" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E242" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
@@ -5427,10 +5427,10 @@
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
       <c r="D243" s="8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E243" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
@@ -5443,7 +5443,7 @@
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E244" s="8" t="s">
         <v>44</v>
@@ -5459,10 +5459,10 @@
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E245" s="10" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
@@ -5475,10 +5475,10 @@
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="10" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E246" s="10" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
